--- a/Excel_luban/Datas/HitHamsterConfig.xlsx
+++ b/Excel_luban/Datas/HitHamsterConfig.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -166,18 +166,6 @@
   </si>
   <si>
     <t>+{0}</t>
-  </si>
-  <si>
-    <t>红帽地鼠</t>
-  </si>
-  <si>
-    <t>ui://HitHamsterPKG/pub_ic_029</t>
-  </si>
-  <si>
-    <t>地鼠探头速度加快[color=#FFE600]4s[/color]</t>
-  </si>
-  <si>
-    <t>pub_ic_029</t>
   </si>
   <si>
     <t>蓝矿地鼠</t>
@@ -1286,10 +1274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:K17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1603,26 +1591,26 @@
         <v>36</v>
       </c>
       <c r="F7" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4</v>
+      </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="K7" s="18"/>
       <c r="L7" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -1630,107 +1618,71 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
       </c>
       <c r="G8" s="16">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H8" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" s="4" customFormat="1" spans="2:13">
       <c r="B9" s="16">
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
       </c>
       <c r="G9" s="16">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H9" s="16">
         <v>5</v>
       </c>
       <c r="I9" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="16">
         <v>0</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="2:13">
-      <c r="B10" s="16">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>100</v>
-      </c>
-      <c r="H10" s="16">
-        <v>5</v>
-      </c>
-      <c r="I10" s="16">
-        <v>2</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
